--- a/www.eia.gov/forecasts/steo/xls/Fig21.xlsx
+++ b/www.eia.gov/forecasts/steo/xls/Fig21.xlsx
@@ -29,7 +29,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
   <si>
-    <t>Short-Term Energy Outlook, January 2017</t>
+    <t>Short-Term Energy Outlook, February 2017</t>
   </si>
   <si>
     <t>Production (million short tons)</t>
@@ -50,7 +50,7 @@
     <t>Total production</t>
   </si>
   <si>
-    <t>Source: Short-Term Energy Outlook, January 2017.</t>
+    <t>Source: Short-Term Energy Outlook, February 2017.</t>
   </si>
   <si>
     <t>Total Production (million short tons)</t>
@@ -337,10 +337,10 @@
                   <c:v>-100.93038999999999</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>32.386961999999983</c:v>
+                  <c:v>12.645310569999992</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>15.048400000000015</c:v>
+                  <c:v>24.282531430000006</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -524,10 +524,10 @@
                   <c:v>-39.46305700000002</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>7.4259399999999971</c:v>
+                  <c:v>1.0364842900000042</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>-6.705869999999976</c:v>
+                  <c:v>-6.4672542899999996</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -711,10 +711,10 @@
                   <c:v>-17.923003000000023</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>11.473359000000016</c:v>
+                  <c:v>10.116050430000001</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>-6.7741800000000012</c:v>
+                  <c:v>-7.3660214299999893</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -729,8 +729,8 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="643154016"/>
-        <c:axId val="643154576"/>
+        <c:axId val="592527600"/>
+        <c:axId val="592543840"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -983,7 +983,7 @@
                   <c:v>66.122827999999998</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>#N/A</c:v>
+                  <c:v>69.030357143000003</c:v>
                 </c:pt>
                 <c:pt idx="25">
                   <c:v>#N/A</c:v>
@@ -1305,79 +1305,79 @@
                   <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>66.122827999999998</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>70.995080000000002</c:v>
+                  <c:v>69.030357143000003</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>63.675150000000002</c:v>
+                  <c:v>61.049370000000003</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>68.329080000000005</c:v>
+                  <c:v>66.358819999999994</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>55.571309999999997</c:v>
+                  <c:v>51.745640000000002</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>60.345779999999998</c:v>
+                  <c:v>57.534289999999999</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>60.985489999999999</c:v>
+                  <c:v>59.271340000000002</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>68.854860000000002</c:v>
+                  <c:v>67.882400000000004</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>74.437119999999993</c:v>
+                  <c:v>73.270849999999996</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>63.503959999999999</c:v>
+                  <c:v>61.827820000000003</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>65.243549999999999</c:v>
+                  <c:v>62.986139999999999</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>65.399510000000006</c:v>
+                  <c:v>62.20252</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>72.606279999999998</c:v>
+                  <c:v>69.298119999999997</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>69.326049999999995</c:v>
+                  <c:v>70.245909999999995</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>59.09496</c:v>
+                  <c:v>57.589219999999997</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>66.857050000000001</c:v>
+                  <c:v>65.105530000000002</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>54.874569999999999</c:v>
+                  <c:v>53.334060000000001</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>58.856859999999998</c:v>
+                  <c:v>57.19238</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>62.141129999999997</c:v>
+                  <c:v>60.666989999999998</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>69.321560000000005</c:v>
+                  <c:v>68.043490000000006</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>74.536019999999994</c:v>
+                  <c:v>73.251689999999996</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>62.442300000000003</c:v>
+                  <c:v>61.00591</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>66.234729999999999</c:v>
+                  <c:v>64.514250000000004</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>66.130439999999993</c:v>
+                  <c:v>63.401179999999997</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>81.699839999999995</c:v>
+                  <c:v>78.557400000000001</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1394,11 +1394,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="643152896"/>
-        <c:axId val="643153456"/>
+        <c:axId val="592531520"/>
+        <c:axId val="592536000"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="643152896"/>
+        <c:axId val="592531520"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1415,7 +1415,7 @@
             </a:solidFill>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="643153456"/>
+        <c:crossAx val="592536000"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
@@ -1426,7 +1426,7 @@
         <c:minorTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="643153456"/>
+        <c:axId val="592536000"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="100"/>
@@ -1454,13 +1454,13 @@
             <a:noFill/>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="643152896"/>
+        <c:crossAx val="592531520"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="10"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="643154016"/>
+        <c:axId val="592527600"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1477,7 +1477,7 @@
             </a:solidFill>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="643154576"/>
+        <c:crossAx val="592543840"/>
         <c:crossesAt val="0"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1485,7 +1485,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="643154576"/>
+        <c:axId val="592543840"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="120"/>
@@ -1501,7 +1501,7 @@
             <a:noFill/>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="643154016"/>
+        <c:crossAx val="592527600"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="30"/>
@@ -1665,7 +1665,7 @@
               <a:cs typeface="Arial" pitchFamily="34" charset="0"/>
             </a:rPr>
             <a:pPr algn="l"/>
-            <a:t>Source: Short-Term Energy Outlook, January 2017.</a:t>
+            <a:t>Source: Short-Term Energy Outlook, February 2017.</a:t>
           </a:fld>
           <a:endParaRPr lang="en-US" sz="900">
             <a:latin typeface="Arial" pitchFamily="34" charset="0"/>
@@ -1798,10 +1798,10 @@
             <v>-100.93038999999999</v>
           </cell>
           <cell r="L27">
-            <v>32.386961999999983</v>
+            <v>12.645310569999992</v>
           </cell>
           <cell r="M27">
-            <v>15.048400000000015</v>
+            <v>24.282531430000006</v>
           </cell>
         </row>
         <row r="28">
@@ -1812,10 +1812,10 @@
             <v>-39.46305700000002</v>
           </cell>
           <cell r="L28">
-            <v>7.4259399999999971</v>
+            <v>1.0364842900000042</v>
           </cell>
           <cell r="M28">
-            <v>-6.705869999999976</v>
+            <v>-6.4672542899999996</v>
           </cell>
         </row>
         <row r="29">
@@ -1826,10 +1826,10 @@
             <v>-17.923003000000023</v>
           </cell>
           <cell r="L29">
-            <v>11.473359000000016</v>
+            <v>10.116050430000001</v>
           </cell>
           <cell r="M29">
-            <v>-6.7741800000000012</v>
+            <v>-7.3660214299999893</v>
           </cell>
         </row>
         <row r="36">
@@ -2092,19 +2092,19 @@
           <cell r="C59">
             <v>66.122827999999998</v>
           </cell>
-          <cell r="D59">
-            <v>66.122827999999998</v>
+          <cell r="D59" t="e">
+            <v>#N/A</v>
           </cell>
         </row>
         <row r="60">
           <cell r="B60">
             <v>42736</v>
           </cell>
-          <cell r="C60" t="e">
-            <v>#N/A</v>
+          <cell r="C60">
+            <v>69.030357143000003</v>
           </cell>
           <cell r="D60">
-            <v>70.995080000000002</v>
+            <v>69.030357143000003</v>
           </cell>
         </row>
         <row r="61">
@@ -2115,7 +2115,7 @@
             <v>#N/A</v>
           </cell>
           <cell r="D61">
-            <v>63.675150000000002</v>
+            <v>61.049370000000003</v>
           </cell>
         </row>
         <row r="62">
@@ -2126,7 +2126,7 @@
             <v>#N/A</v>
           </cell>
           <cell r="D62">
-            <v>68.329080000000005</v>
+            <v>66.358819999999994</v>
           </cell>
         </row>
         <row r="63">
@@ -2137,7 +2137,7 @@
             <v>#N/A</v>
           </cell>
           <cell r="D63">
-            <v>55.571309999999997</v>
+            <v>51.745640000000002</v>
           </cell>
         </row>
         <row r="64">
@@ -2148,7 +2148,7 @@
             <v>#N/A</v>
           </cell>
           <cell r="D64">
-            <v>60.345779999999998</v>
+            <v>57.534289999999999</v>
           </cell>
         </row>
         <row r="65">
@@ -2159,7 +2159,7 @@
             <v>#N/A</v>
           </cell>
           <cell r="D65">
-            <v>60.985489999999999</v>
+            <v>59.271340000000002</v>
           </cell>
         </row>
         <row r="66">
@@ -2170,7 +2170,7 @@
             <v>#N/A</v>
           </cell>
           <cell r="D66">
-            <v>68.854860000000002</v>
+            <v>67.882400000000004</v>
           </cell>
         </row>
         <row r="67">
@@ -2181,7 +2181,7 @@
             <v>#N/A</v>
           </cell>
           <cell r="D67">
-            <v>74.437119999999993</v>
+            <v>73.270849999999996</v>
           </cell>
         </row>
         <row r="68">
@@ -2192,7 +2192,7 @@
             <v>#N/A</v>
           </cell>
           <cell r="D68">
-            <v>63.503959999999999</v>
+            <v>61.827820000000003</v>
           </cell>
         </row>
         <row r="69">
@@ -2203,7 +2203,7 @@
             <v>#N/A</v>
           </cell>
           <cell r="D69">
-            <v>65.243549999999999</v>
+            <v>62.986139999999999</v>
           </cell>
         </row>
         <row r="70">
@@ -2214,7 +2214,7 @@
             <v>#N/A</v>
           </cell>
           <cell r="D70">
-            <v>65.399510000000006</v>
+            <v>62.20252</v>
           </cell>
         </row>
         <row r="71">
@@ -2225,7 +2225,7 @@
             <v>#N/A</v>
           </cell>
           <cell r="D71">
-            <v>72.606279999999998</v>
+            <v>69.298119999999997</v>
           </cell>
         </row>
         <row r="72">
@@ -2236,7 +2236,7 @@
             <v>#N/A</v>
           </cell>
           <cell r="D72">
-            <v>69.326049999999995</v>
+            <v>70.245909999999995</v>
           </cell>
         </row>
         <row r="73">
@@ -2247,7 +2247,7 @@
             <v>#N/A</v>
           </cell>
           <cell r="D73">
-            <v>59.09496</v>
+            <v>57.589219999999997</v>
           </cell>
         </row>
         <row r="74">
@@ -2258,7 +2258,7 @@
             <v>#N/A</v>
           </cell>
           <cell r="D74">
-            <v>66.857050000000001</v>
+            <v>65.105530000000002</v>
           </cell>
         </row>
         <row r="75">
@@ -2269,7 +2269,7 @@
             <v>#N/A</v>
           </cell>
           <cell r="D75">
-            <v>54.874569999999999</v>
+            <v>53.334060000000001</v>
           </cell>
         </row>
         <row r="76">
@@ -2280,7 +2280,7 @@
             <v>#N/A</v>
           </cell>
           <cell r="D76">
-            <v>58.856859999999998</v>
+            <v>57.19238</v>
           </cell>
         </row>
         <row r="77">
@@ -2291,7 +2291,7 @@
             <v>#N/A</v>
           </cell>
           <cell r="D77">
-            <v>62.141129999999997</v>
+            <v>60.666989999999998</v>
           </cell>
         </row>
         <row r="78">
@@ -2302,7 +2302,7 @@
             <v>#N/A</v>
           </cell>
           <cell r="D78">
-            <v>69.321560000000005</v>
+            <v>68.043490000000006</v>
           </cell>
         </row>
         <row r="79">
@@ -2313,7 +2313,7 @@
             <v>#N/A</v>
           </cell>
           <cell r="D79">
-            <v>74.536019999999994</v>
+            <v>73.251689999999996</v>
           </cell>
         </row>
         <row r="80">
@@ -2324,7 +2324,7 @@
             <v>#N/A</v>
           </cell>
           <cell r="D80">
-            <v>62.442300000000003</v>
+            <v>61.00591</v>
           </cell>
         </row>
         <row r="81">
@@ -2335,7 +2335,7 @@
             <v>#N/A</v>
           </cell>
           <cell r="D81">
-            <v>66.234729999999999</v>
+            <v>64.514250000000004</v>
           </cell>
         </row>
         <row r="82">
@@ -2346,7 +2346,7 @@
             <v>#N/A</v>
           </cell>
           <cell r="D82">
-            <v>66.130439999999993</v>
+            <v>63.401179999999997</v>
           </cell>
         </row>
         <row r="83">
@@ -2357,7 +2357,7 @@
             <v>#N/A</v>
           </cell>
           <cell r="D83">
-            <v>81.699839999999995</v>
+            <v>78.557400000000001</v>
           </cell>
         </row>
       </sheetData>
@@ -2720,10 +2720,10 @@
         <v>406.466678</v>
       </c>
       <c r="G27" s="10">
-        <v>438.85363999999998</v>
+        <v>419.11198856999999</v>
       </c>
       <c r="H27" s="10">
-        <v>453.90204</v>
+        <v>443.39452</v>
       </c>
       <c r="I27" s="10"/>
       <c r="J27" s="11">
@@ -2736,11 +2736,11 @@
       </c>
       <c r="L27" s="11">
         <f t="shared" si="0"/>
-        <v>32.386961999999983</v>
+        <v>12.645310569999992</v>
       </c>
       <c r="M27" s="11">
         <f t="shared" si="0"/>
-        <v>15.048400000000015</v>
+        <v>24.282531430000006</v>
       </c>
     </row>
     <row r="28" spans="2:13" x14ac:dyDescent="0.25">
@@ -2757,10 +2757,10 @@
         <v>182.56147999999999</v>
       </c>
       <c r="G28" s="10">
-        <v>189.98741999999999</v>
+        <v>183.59796428999999</v>
       </c>
       <c r="H28" s="10">
-        <v>183.28155000000001</v>
+        <v>177.13070999999999</v>
       </c>
       <c r="I28" s="10"/>
       <c r="J28" s="11">
@@ -2773,11 +2773,11 @@
       </c>
       <c r="L28" s="11">
         <f t="shared" si="0"/>
-        <v>7.4259399999999971</v>
+        <v>1.0364842900000042</v>
       </c>
       <c r="M28" s="11">
         <f t="shared" si="0"/>
-        <v>-6.705869999999976</v>
+        <v>-6.4672542899999996</v>
       </c>
     </row>
     <row r="29" spans="2:13" x14ac:dyDescent="0.25">
@@ -2794,10 +2794,10 @@
         <v>149.63277099999999</v>
       </c>
       <c r="G29" s="10">
-        <v>161.10613000000001</v>
+        <v>159.74882142999999</v>
       </c>
       <c r="H29" s="10">
-        <v>154.33195000000001</v>
+        <v>152.3828</v>
       </c>
       <c r="I29" s="10"/>
       <c r="J29" s="11">
@@ -2810,11 +2810,11 @@
       </c>
       <c r="L29" s="11">
         <f t="shared" si="0"/>
-        <v>11.473359000000016</v>
+        <v>10.116050430000001</v>
       </c>
       <c r="M29" s="11">
         <f t="shared" si="0"/>
-        <v>-6.7741800000000012</v>
+        <v>-7.3660214299999893</v>
       </c>
     </row>
     <row r="30" spans="2:13" x14ac:dyDescent="0.25">
@@ -2832,10 +2832,10 @@
         <v>738.66092900000001</v>
       </c>
       <c r="G30" s="13">
-        <v>789.94717000000003</v>
+        <v>762.45766714000001</v>
       </c>
       <c r="H30" s="13">
-        <v>791.51550999999995</v>
+        <v>772.90800999999999</v>
       </c>
       <c r="I30" s="13"/>
       <c r="J30" s="14">
@@ -2848,11 +2848,11 @@
       </c>
       <c r="L30" s="14">
         <f t="shared" si="0"/>
-        <v>51.286241000000018</v>
+        <v>23.796738140000002</v>
       </c>
       <c r="M30" s="14">
         <f t="shared" si="0"/>
-        <v>1.568339999999921</v>
+        <v>10.450342859999978</v>
       </c>
     </row>
     <row r="31" spans="2:13" x14ac:dyDescent="0.25">
@@ -3147,19 +3147,19 @@
       <c r="C59" s="22">
         <v>66.122827999999998</v>
       </c>
-      <c r="D59" s="22">
-        <v>66.122827999999998</v>
+      <c r="D59" s="22" t="e">
+        <v>#N/A</v>
       </c>
     </row>
     <row r="60" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B60" s="20">
         <v>42736</v>
       </c>
-      <c r="C60" s="22" t="e">
-        <v>#N/A</v>
+      <c r="C60" s="22">
+        <v>69.030357143000003</v>
       </c>
       <c r="D60" s="22">
-        <v>70.995080000000002</v>
+        <v>69.030357143000003</v>
       </c>
     </row>
     <row r="61" spans="2:4" x14ac:dyDescent="0.25">
@@ -3170,7 +3170,7 @@
         <v>#N/A</v>
       </c>
       <c r="D61" s="22">
-        <v>63.675150000000002</v>
+        <v>61.049370000000003</v>
       </c>
     </row>
     <row r="62" spans="2:4" x14ac:dyDescent="0.25">
@@ -3181,7 +3181,7 @@
         <v>#N/A</v>
       </c>
       <c r="D62" s="22">
-        <v>68.329080000000005</v>
+        <v>66.358819999999994</v>
       </c>
     </row>
     <row r="63" spans="2:4" x14ac:dyDescent="0.25">
@@ -3192,7 +3192,7 @@
         <v>#N/A</v>
       </c>
       <c r="D63" s="22">
-        <v>55.571309999999997</v>
+        <v>51.745640000000002</v>
       </c>
     </row>
     <row r="64" spans="2:4" x14ac:dyDescent="0.25">
@@ -3203,7 +3203,7 @@
         <v>#N/A</v>
       </c>
       <c r="D64" s="22">
-        <v>60.345779999999998</v>
+        <v>57.534289999999999</v>
       </c>
     </row>
     <row r="65" spans="2:4" x14ac:dyDescent="0.25">
@@ -3214,7 +3214,7 @@
         <v>#N/A</v>
       </c>
       <c r="D65" s="22">
-        <v>60.985489999999999</v>
+        <v>59.271340000000002</v>
       </c>
     </row>
     <row r="66" spans="2:4" x14ac:dyDescent="0.25">
@@ -3225,7 +3225,7 @@
         <v>#N/A</v>
       </c>
       <c r="D66" s="22">
-        <v>68.854860000000002</v>
+        <v>67.882400000000004</v>
       </c>
     </row>
     <row r="67" spans="2:4" x14ac:dyDescent="0.25">
@@ -3236,7 +3236,7 @@
         <v>#N/A</v>
       </c>
       <c r="D67" s="22">
-        <v>74.437119999999993</v>
+        <v>73.270849999999996</v>
       </c>
     </row>
     <row r="68" spans="2:4" x14ac:dyDescent="0.25">
@@ -3247,7 +3247,7 @@
         <v>#N/A</v>
       </c>
       <c r="D68" s="22">
-        <v>63.503959999999999</v>
+        <v>61.827820000000003</v>
       </c>
     </row>
     <row r="69" spans="2:4" x14ac:dyDescent="0.25">
@@ -3258,7 +3258,7 @@
         <v>#N/A</v>
       </c>
       <c r="D69" s="22">
-        <v>65.243549999999999</v>
+        <v>62.986139999999999</v>
       </c>
     </row>
     <row r="70" spans="2:4" x14ac:dyDescent="0.25">
@@ -3269,7 +3269,7 @@
         <v>#N/A</v>
       </c>
       <c r="D70" s="22">
-        <v>65.399510000000006</v>
+        <v>62.20252</v>
       </c>
     </row>
     <row r="71" spans="2:4" x14ac:dyDescent="0.25">
@@ -3280,7 +3280,7 @@
         <v>#N/A</v>
       </c>
       <c r="D71" s="22">
-        <v>72.606279999999998</v>
+        <v>69.298119999999997</v>
       </c>
     </row>
     <row r="72" spans="2:4" x14ac:dyDescent="0.25">
@@ -3291,7 +3291,7 @@
         <v>#N/A</v>
       </c>
       <c r="D72" s="22">
-        <v>69.326049999999995</v>
+        <v>70.245909999999995</v>
       </c>
     </row>
     <row r="73" spans="2:4" x14ac:dyDescent="0.25">
@@ -3302,7 +3302,7 @@
         <v>#N/A</v>
       </c>
       <c r="D73" s="22">
-        <v>59.09496</v>
+        <v>57.589219999999997</v>
       </c>
     </row>
     <row r="74" spans="2:4" x14ac:dyDescent="0.25">
@@ -3313,7 +3313,7 @@
         <v>#N/A</v>
       </c>
       <c r="D74" s="22">
-        <v>66.857050000000001</v>
+        <v>65.105530000000002</v>
       </c>
     </row>
     <row r="75" spans="2:4" x14ac:dyDescent="0.25">
@@ -3324,7 +3324,7 @@
         <v>#N/A</v>
       </c>
       <c r="D75" s="22">
-        <v>54.874569999999999</v>
+        <v>53.334060000000001</v>
       </c>
     </row>
     <row r="76" spans="2:4" x14ac:dyDescent="0.25">
@@ -3335,7 +3335,7 @@
         <v>#N/A</v>
       </c>
       <c r="D76" s="22">
-        <v>58.856859999999998</v>
+        <v>57.19238</v>
       </c>
     </row>
     <row r="77" spans="2:4" x14ac:dyDescent="0.25">
@@ -3346,7 +3346,7 @@
         <v>#N/A</v>
       </c>
       <c r="D77" s="22">
-        <v>62.141129999999997</v>
+        <v>60.666989999999998</v>
       </c>
     </row>
     <row r="78" spans="2:4" x14ac:dyDescent="0.25">
@@ -3357,7 +3357,7 @@
         <v>#N/A</v>
       </c>
       <c r="D78" s="22">
-        <v>69.321560000000005</v>
+        <v>68.043490000000006</v>
       </c>
     </row>
     <row r="79" spans="2:4" x14ac:dyDescent="0.25">
@@ -3368,7 +3368,7 @@
         <v>#N/A</v>
       </c>
       <c r="D79" s="22">
-        <v>74.536019999999994</v>
+        <v>73.251689999999996</v>
       </c>
     </row>
     <row r="80" spans="2:4" x14ac:dyDescent="0.25">
@@ -3379,7 +3379,7 @@
         <v>#N/A</v>
       </c>
       <c r="D80" s="22">
-        <v>62.442300000000003</v>
+        <v>61.00591</v>
       </c>
     </row>
     <row r="81" spans="2:4" x14ac:dyDescent="0.25">
@@ -3390,7 +3390,7 @@
         <v>#N/A</v>
       </c>
       <c r="D81" s="22">
-        <v>66.234729999999999</v>
+        <v>64.514250000000004</v>
       </c>
     </row>
     <row r="82" spans="2:4" x14ac:dyDescent="0.25">
@@ -3401,7 +3401,7 @@
         <v>#N/A</v>
       </c>
       <c r="D82" s="22">
-        <v>66.130439999999993</v>
+        <v>63.401179999999997</v>
       </c>
     </row>
     <row r="83" spans="2:4" x14ac:dyDescent="0.25">
@@ -3412,7 +3412,7 @@
         <v>#N/A</v>
       </c>
       <c r="D83" s="24">
-        <v>81.699839999999995</v>
+        <v>78.557400000000001</v>
       </c>
     </row>
   </sheetData>
